--- a/biology/Botanique/Louis_Roederer_(1845-1880)/Louis_Roederer_(1845-1880).xlsx
+++ b/biology/Botanique/Louis_Roederer_(1845-1880)/Louis_Roederer_(1845-1880).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Roederer II, né le 5 avril 1845 à Reims (Marne) et décédé le 27 juillet 1880 à Reims, est un homme politique français et dirigeant de la maison de Champagne Louis Roederer.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait la campagne de l’armée du Nord comme Garde nationale mobile, puis est capitaine au 46e régiment d'infanterie territoriale.
 Fils de Louis Roederer, il prend la direction de la maison de champagne familiale au décès de son père en 1870. 
@@ -545,7 +559,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">« Louis Roederer (1845-1880) », dans Adolphe Robert et Gaston Cougny, Dictionnaire des parlementaires français, Edgar Bourloton, 1889-1891 [détail de l’édition]
 Notices d'autorité : VIAF BnF (données) WorldCat 
